--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yigitemre/Desktop/6838scout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3CE147-D074-3544-AB6A-165967C6A160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFE84D-2C38-A14B-BFCF-CADD6BFF0074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Scouter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,9 +131,6 @@
     <t>Died</t>
   </si>
   <si>
-    <t>Tripped</t>
-  </si>
-  <si>
     <t>Card Foul</t>
   </si>
   <si>
@@ -151,12 +148,72 @@
   <si>
     <t>Team Name</t>
   </si>
+  <si>
+    <t>Afk</t>
+  </si>
+  <si>
+    <t>AFK</t>
+  </si>
+  <si>
+    <t>s=Onur;e=Bosphorus Regional 2022;l=qm;m=1;r=r1;t=7086;tn=İorobot;as=[44];at=Y;au=0;al=0;ac=Y;tu=2;tl=0;tm=3;tn=0;wd=N;cl=g;ss=;c=1;be=N;cn=3;ds=a;dr=x;d=N;to=N;cf=N;co=İntake çöp shooter çok yukarı atıyor isabeli değil</t>
+  </si>
+  <si>
+    <t>s=Talya Aycan Bayram;e=Bosphorus Regional 2022;l=qm;m=1;r=b1;t=5665;tn=SPARC;as=[30];at=N;au=1;al=0;ac=N;tu=1;tl=0;tm=2;tn=1;wd=N;cl=g;ss=[29];c=3;be=N;cn=0;ds=a;dr=a;d=N;to=N;cf=N;co=</t>
+  </si>
+  <si>
+    <t>s=Aysu Uysal;e=Bosphorus Regional 2022;l=qm;m=1;r=r2;t=8153;tn=Tech 4 Peace;as=[31];at=Y;au=1;al=0;ac=N;tu=1;tl=0;tm=5;tn=0;wd=N;cl=g;ss=;c=3;be=Y;cn=3;ds=x;dr=x;d=N;to=N;cf=N;co=Atışları girmedi</t>
+  </si>
+  <si>
+    <t>s=Berra;e=Bosphorus Regional 2022;l=qm;m=1;r=r3;t=7748;tn=Techtolia Robotics;as=[19];at=Y;au=0;al=0;ac=N;tu=0;tl=2;tm=0;tn=0;wd=N;cl=g;ss=[19];c=2;be=N;cn=3;ds=a;dr=a;d=N;to=N;cf=N;co=</t>
+  </si>
+  <si>
+    <t>s=Aysu Uysal;e=Bosphorus Regional 2022;l=qm;m=2;r=r2;t=7682;tn=Fusion Robotics;as=[19];at=Y;au=1;al=0;ac=N;tu=0;tl=0;tm=2;tn=0;wd=N;cl=x;ss=[11,10];c=x;be=N;cn=0;ds=n;dr=n;d=N;to=N;cf=N;co=Hareket etmedi doğru düzgün</t>
+  </si>
+  <si>
+    <t>s=Onur ;e=Bosphorus Regional 2022;l=qm;m=2;r=r1;t=8636;tn=Türkistan robotics;as=[44];at=Y;au=0;al=0;ac=N;tu=0;tl=0;tm=5;tn=0;wd=N;cl=g;ss=[44,44,44,44,44];c=x;be=N;cn=0;ds=a;dr=x;d=N;to=N;cf=N;co=</t>
+  </si>
+  <si>
+    <t>s=Duru;e=Bosphorus Regional 2022;l=qm;m=2;r=b2;t=1772;tn=The brazillian ;as=[29];at=Y;au=0;al=0;ac=Y;tu=5;tl=0;tm=4;tn=0;wd=N;cl=g;ss=;c=2;be=N;cn=0;ds=a;dr=x;d=N;to=N;cf=N;co=</t>
+  </si>
+  <si>
+    <t>s=Talya Aycan Bayram;e=Bosphorus Regional 2022;l=qm;m=2;r=b1;t=8856;tn=Lapis Lazuli;as=[54];at=N;au=0;al=1;ac=N;tu=0;tl=6;tm=0;tn=0;wd=N;cl=g;ss=[29];c=f;be=N;cn=0;ds=n;dr=a;d=N;to=N;cf=N;co=</t>
+  </si>
+  <si>
+    <t>s=Demir;e=Bosphorus Regional 2022;l=qm;m=2;r=b3;t=6459;tn=Ag Robotik ;as=[42];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=0;tn=0;wd=N;cl=x;ss=;c=x;be=N;cn=1;ds=x;dr=a;d=N;to=N;cf=N;co=Didnt do anything</t>
+  </si>
+  <si>
+    <t>s=Berra;e=Bosphorus Regional 2022;l=qm;m=2;r=r3;t=8861;tn=06ANGORA;as=[44];at=Y;au=0;al=0;ac=N;tu=2;tl=0;tm=1;tn=0;wd=N;cl=g;ss=[21,52,7];c=x;be=N;cn=1;ds=n;dr=x;d=N;to=N;cf=N;co=</t>
+  </si>
+  <si>
+    <t>s=Demir;e=Bosphorus Regional 2022;l=qm;m=1;r=b3;t=8800;tn=Industry robotics;as=[55];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=1;tn=0;wd=N;cl=g;ss=[54];c=x;be=N;cn=4;ds=n;dr=n;d=N;to=N;cf=N;co=Didnt do anything</t>
+  </si>
+  <si>
+    <t>s=Aysu Uysal;e=Bosphorus Regional 2022;l=qm;m=3;r=r2;t=8084;tn=Alfa Robotics;as=[44];at=Y;au=0;al=0;ac=N;tu=0;tl=0;tm=0;tn=0;wd=N;cl=x;ss=;c=x;be=N;cn=0;ds=x;dr=x;d=N;to=N;cf=N;co=Otonomdan sonra hareket edemedi</t>
+  </si>
+  <si>
+    <t>s=Duru;e=Bosphorus Regional 2022;l=qm;m=3;r=b2;t=8092;tn=Goat;as=[42];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=0;tn=0;wd=N;cl=g;ss=;c=x;be=N;cn=0;ds=a;dr=x;d=Y;to=N;cf=N;co=</t>
+  </si>
+  <si>
+    <t>s=Demir;e=Bosphorus Regional 2022;l=qm;m=3;r=b3;t=7672;tn=Scorpions;as=[17];at=Y;au=0;al=0;ac=N;tu=1;tl=0;tm=0;tn=0;wd=N;cl=g;ss=[54];c=4;be=Y;cn=3;ds=v;dr=a;d=N;to=N;cf=N;co=The robot was the only one that scored</t>
+  </si>
+  <si>
+    <t>s=Onur;e=Bosphorus Regional 2022;l=qm;m=3;r=r1;t=8747;tn=Unye fen;as=[44];at=Y;au=0;al=0;ac=N;tu=0;tl=2;tm=0;tn=0;wd=N;cl=g;ss=[43,43];c=2;be=N;cn=1;ds=a;dr=x;d=N;to=N;cf=N;co=Tahta robot</t>
+  </si>
+  <si>
+    <t>s=Zeynep Naz Atabek;e=Bosphorus Regional 2022;l=qm;m=4;r=b2;t=6988;tn=İzmir Amerikan Koleji;as=[54];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=1;tn=0;wd=N;cl=x;ss=;c=f;be=Y;cn=1;ds=n;dr=x;d=N;to=Y;cf=N;co=</t>
+  </si>
+  <si>
+    <t>s=Kayra;e=Bosphorus Regional 2022;l=qm;m=4;r=r3;t=8762;tn=Anemrium robotics team?;as=[55];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=0;tn=0;wd=N;cl=x;ss=;c=x;be=N;cn=2;ds=n;dr=n;d=N;to=N;cf=N;co=Bi bok yapmadı</t>
+  </si>
+  <si>
+    <t>s=burak;e=Bosphorus Regional 2022;l=qm;m=4;r=r2;t=7292;tn=7282;as=[29];at=Y;au=1;al=0;ac=N;tu=1;tl=0;tm=0;tn=0;wd=N;cl=g;ss=[30];c=3;be=Y;cn=2;ds=n;dr=x;d=N;to=N;cf=N;co=İntake kötü, driver kötü 40sn tırmandı, alsa atar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +237,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212529"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -240,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +320,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0977C36-33F4-4B0D-9C5F-2DAE4DD4F224}">
-  <dimension ref="B1:AP91"/>
+  <dimension ref="A1:AP91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,7 +656,7 @@
     <col min="2" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -607,10 +673,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -667,13 +733,13 @@
         <v>21</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="AD1" s="5"/>
       <c r="AE1" s="3"/>
@@ -685,38 +751,122 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A2,";",REPT(" ",LEN(A2)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A2)-LEN(SUBSTITUTE(A2,";",""))+1))*LEN(A2)+1,LEN(A2)+1)))</f>
-        <v/>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+        <f t="array" aca="1" ref="B2:AC2" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A2,";",REPT(" ",LEN(A2)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A2)-LEN(SUBSTITUTE(A2,";",""))+1))*LEN(A2)+1,LEN(A2)+1)))</f>
+        <v>s=Onur</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f ca="1"/>
+        <v>m=1</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r1</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f ca="1"/>
+        <v>t=7086</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=İorobot</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[44]</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=Y</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=2</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=3</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T2" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <f ca="1"/>
+        <v>c=1</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=3</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=a</v>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z2" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA2" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB2" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC2" s="1" t="str">
+        <f ca="1"/>
+        <v>co=İntake çöp shooter çok yukarı atıyor isabeli değil</v>
+      </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
@@ -730,38 +880,122 @@
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
     </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A3,";",REPT(" ",LEN(A3)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A3)-LEN(SUBSTITUTE(A3,";",""))+1))*LEN(A3)+1,LEN(A3)+1)))</f>
-        <v/>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+        <f t="array" aca="1" ref="B3:AC3" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A3,";",REPT(" ",LEN(A3)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A3)-LEN(SUBSTITUTE(A3,";",""))+1))*LEN(A3)+1,LEN(A3)+1)))</f>
+        <v>s=Talya Aycan Bayram</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f ca="1"/>
+        <v>m=1</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b1</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f ca="1"/>
+        <v>t=5665</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=SPARC</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[30]</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f ca="1"/>
+        <v>at=N</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f ca="1"/>
+        <v>au=1</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=1</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=2</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=1</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[29]</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f ca="1"/>
+        <v>c=3</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=0</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=a</v>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=a</v>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB3" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC3" s="1" t="str">
+        <f ca="1"/>
+        <v>co=</v>
+      </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
@@ -775,38 +1009,122 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
     </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B4" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
-        <v/>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+        <f t="array" aca="1" ref="B4:AC4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
+        <v>s=Aysu Uysal</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f ca="1"/>
+        <v>m=1</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r2</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8153</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Tech 4 Peace</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[31]</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f ca="1"/>
+        <v>au=1</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=1</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=5</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f ca="1"/>
+        <v>c=3</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f ca="1"/>
+        <v>be=Y</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=3</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=x</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC4" s="1" t="str">
+        <f ca="1"/>
+        <v>co=Atışları girmedi</v>
+      </c>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -820,38 +1138,122 @@
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
     </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B5" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A5,";",REPT(" ",LEN(A5)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A5)-LEN(SUBSTITUTE(A5,";",""))+1))*LEN(A5)+1,LEN(A5)+1)))</f>
-        <v/>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+        <f t="array" aca="1" ref="B5:AC5" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A5,";",REPT(" ",LEN(A5)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A5)-LEN(SUBSTITUTE(A5,";",""))+1))*LEN(A5)+1,LEN(A5)+1)))</f>
+        <v>s=Berra</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f ca="1"/>
+        <v>m=1</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r3</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f ca="1"/>
+        <v>t=7748</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Techtolia Robotics</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[19]</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=2</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[19]</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f ca="1"/>
+        <v>c=2</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=3</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=a</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=a</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB5" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <f ca="1"/>
+        <v>co=</v>
+      </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -865,38 +1267,122 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A6,";",REPT(" ",LEN(A6)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A6)-LEN(SUBSTITUTE(A6,";",""))+1))*LEN(A6)+1,LEN(A6)+1)))</f>
-        <v/>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+        <f t="array" aca="1" ref="B6:AC6" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A6,";",REPT(" ",LEN(A6)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A6)-LEN(SUBSTITUTE(A6,";",""))+1))*LEN(A6)+1,LEN(A6)+1)))</f>
+        <v>s=Aysu Uysal</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f ca="1"/>
+        <v>m=2</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r2</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f ca="1"/>
+        <v>t=7682</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Fusion Robotics</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[19]</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f ca="1"/>
+        <v>au=1</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=2</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=x</v>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[11,10]</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f ca="1"/>
+        <v>c=x</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=0</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=n</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=n</v>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA6" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB6" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC6" s="1" t="str">
+        <f ca="1"/>
+        <v>co=Hareket etmedi doğru düzgün</v>
+      </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -910,38 +1396,122 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
     </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B7" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A7,";",REPT(" ",LEN(A7)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A7)-LEN(SUBSTITUTE(A7,";",""))+1))*LEN(A7)+1,LEN(A7)+1)))</f>
-        <v/>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+        <f t="array" aca="1" ref="B7:AC7" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A7,";",REPT(" ",LEN(A7)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A7)-LEN(SUBSTITUTE(A7,";",""))+1))*LEN(A7)+1,LEN(A7)+1)))</f>
+        <v>s=Talya Aycan Bayram</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f ca="1"/>
+        <v>m=2</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b1</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8856</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Lapis Lazuli</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[54]</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f ca="1"/>
+        <v>at=N</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f ca="1"/>
+        <v>al=1</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=6</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[29]</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f ca="1"/>
+        <v>c=f</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=0</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=n</v>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=a</v>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB7" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC7" s="1" t="str">
+        <f ca="1"/>
+        <v>co=</v>
+      </c>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -955,38 +1525,122 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A8,";",REPT(" ",LEN(A8)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A8)-LEN(SUBSTITUTE(A8,";",""))+1))*LEN(A8)+1,LEN(A8)+1)))</f>
-        <v/>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
+        <f t="array" aca="1" ref="B8:AC8" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A8,";",REPT(" ",LEN(A8)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A8)-LEN(SUBSTITUTE(A8,";",""))+1))*LEN(A8)+1,LEN(A8)+1)))</f>
+        <v>s=Onur</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f ca="1"/>
+        <v>m=2</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r1</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8636</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Türkistan robotics</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[44]</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=5</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[44,44,44,44,44]</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f ca="1"/>
+        <v>c=x</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=0</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=a</v>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA8" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB8" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC8" s="1" t="str">
+        <f ca="1"/>
+        <v>co=</v>
+      </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -1000,38 +1654,122 @@
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="B9" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A9,";",REPT(" ",LEN(A9)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A9)-LEN(SUBSTITUTE(A9,";",""))+1))*LEN(A9)+1,LEN(A9)+1)))</f>
-        <v/>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
+        <f t="array" aca="1" ref="B9:AC9" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A9,";",REPT(" ",LEN(A9)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A9)-LEN(SUBSTITUTE(A9,";",""))+1))*LEN(A9)+1,LEN(A9)+1)))</f>
+        <v>s=Duru</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f ca="1"/>
+        <v>m=2</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b2</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f ca="1"/>
+        <v>t=1772</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=The brazillian</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[29]</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=Y</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=5</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=4</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f ca="1"/>
+        <v>c=2</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=0</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=a</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA9" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB9" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC9" s="1" t="str">
+        <f ca="1"/>
+        <v>co=</v>
+      </c>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -1045,38 +1783,122 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
     </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B10" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A10,";",REPT(" ",LEN(A10)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A10)-LEN(SUBSTITUTE(A10,";",""))+1))*LEN(A10)+1,LEN(A10)+1)))</f>
-        <v/>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+        <f t="array" aca="1" ref="B10:AC10" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A10,";",REPT(" ",LEN(A10)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A10)-LEN(SUBSTITUTE(A10,";",""))+1))*LEN(A10)+1,LEN(A10)+1)))</f>
+        <v>s=Demir</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f ca="1"/>
+        <v>m=2</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b3</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f ca="1"/>
+        <v>t=6459</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Ag Robotik</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[42]</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f ca="1"/>
+        <v>at=N</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=x</v>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=</v>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f ca="1"/>
+        <v>c=x</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=1</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=x</v>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=a</v>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA10" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB10" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC10" s="1" t="str">
+        <f ca="1"/>
+        <v>co=Didnt do anything</v>
+      </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -1090,38 +1912,122 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
     </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B11" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A11,";",REPT(" ",LEN(A11)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A11)-LEN(SUBSTITUTE(A11,";",""))+1))*LEN(A11)+1,LEN(A11)+1)))</f>
-        <v/>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+        <f t="array" aca="1" ref="B11:AC11" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A11,";",REPT(" ",LEN(A11)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A11)-LEN(SUBSTITUTE(A11,";",""))+1))*LEN(A11)+1,LEN(A11)+1)))</f>
+        <v>s=Berra</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f ca="1"/>
+        <v>m=2</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r3</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8861</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=06ANGORA</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[44]</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=2</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=1</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S11" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[21,52,7]</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f ca="1"/>
+        <v>c=x</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=1</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=n</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z11" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA11" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB11" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC11" s="1" t="str">
+        <f ca="1"/>
+        <v>co=</v>
+      </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
@@ -1135,38 +2041,122 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
     </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B12" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A12,";",REPT(" ",LEN(A12)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A12)-LEN(SUBSTITUTE(A12,";",""))+1))*LEN(A12)+1,LEN(A12)+1)))</f>
-        <v/>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
+        <f t="array" aca="1" ref="B12:AC12" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A12,";",REPT(" ",LEN(A12)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A12)-LEN(SUBSTITUTE(A12,";",""))+1))*LEN(A12)+1,LEN(A12)+1)))</f>
+        <v>s=Demir</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f ca="1"/>
+        <v>m=1</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b3</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8800</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Industry robotics</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[55]</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f ca="1"/>
+        <v>at=N</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=1</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[54]</v>
+      </c>
+      <c r="U12" s="1" t="str">
+        <f ca="1"/>
+        <v>c=x</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=4</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=n</v>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=n</v>
+      </c>
+      <c r="Z12" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA12" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB12" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f ca="1"/>
+        <v>co=Didnt do anything</v>
+      </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -1180,38 +2170,122 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
-        <v/>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+        <f t="array" aca="1" ref="B13:AC13" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
+        <v>s=Aysu Uysal</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f ca="1"/>
+        <v>m=3</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r2</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8084</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Alfa Robotics</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[44]</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S13" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=x</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=</v>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f ca="1"/>
+        <v>c=x</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=0</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=x</v>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA13" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB13" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC13" s="1" t="str">
+        <f ca="1"/>
+        <v>co=Otonomdan sonra hareket edemedi</v>
+      </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -1225,38 +2299,122 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B14" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
-        <v/>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+        <f t="array" aca="1" ref="B14:AC14" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
+        <v>s=Duru</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f ca="1"/>
+        <v>m=3</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b2</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8092</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Goat</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[42]</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f ca="1"/>
+        <v>at=N</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S14" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=</v>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f ca="1"/>
+        <v>c=x</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=0</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=a</v>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z14" s="1" t="str">
+        <f ca="1"/>
+        <v>d=Y</v>
+      </c>
+      <c r="AA14" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB14" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC14" s="1" t="str">
+        <f ca="1"/>
+        <v>co=</v>
+      </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
@@ -1270,38 +2428,122 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
     </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B15" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
-        <v/>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+        <f t="array" aca="1" ref="B15:AC15" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
+        <v>s=Demir</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f ca="1"/>
+        <v>m=3</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b3</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f ca="1"/>
+        <v>t=7672</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Scorpions</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[17]</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=1</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T15" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[54]</v>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f ca="1"/>
+        <v>c=4</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f ca="1"/>
+        <v>be=Y</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=3</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=v</v>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=a</v>
+      </c>
+      <c r="Z15" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA15" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB15" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f ca="1"/>
+        <v>co=The robot was the only one that scored</v>
+      </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -1315,38 +2557,122 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
     </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B16" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
-        <v/>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+        <f t="array" aca="1" ref="B16:AC16" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
+        <v>s=Onur</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f ca="1"/>
+        <v>m=3</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r1</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8747</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Unye fen</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[44]</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=2</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S16" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T16" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[43,43]</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f ca="1"/>
+        <v>c=2</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=1</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=a</v>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z16" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA16" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB16" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC16" s="1" t="str">
+        <f ca="1"/>
+        <v>co=Tahta robot</v>
+      </c>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -1360,38 +2686,122 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
-        <v/>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+        <f t="array" aca="1" ref="B17:AC17" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
+        <v>s=Zeynep Naz Atabek</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f ca="1"/>
+        <v>m=4</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b2</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f ca="1"/>
+        <v>t=6988</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=İzmir Amerikan Koleji</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[54]</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f ca="1"/>
+        <v>at=N</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=1</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=x</v>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f ca="1"/>
+        <v>c=f</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f ca="1"/>
+        <v>be=Y</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=1</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=n</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA17" s="1" t="str">
+        <f ca="1"/>
+        <v>to=Y</v>
+      </c>
+      <c r="AB17" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC17" s="1" t="str">
+        <f ca="1"/>
+        <v>co=</v>
+      </c>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
@@ -1405,38 +2815,122 @@
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B18" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
-        <v/>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+        <f t="array" aca="1" ref="B18:AC18" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
+        <v>s=Kayra</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f ca="1"/>
+        <v>m=4</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r3</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f ca="1"/>
+        <v>t=8762</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=Anemrium robotics team?</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[55]</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f ca="1"/>
+        <v>at=N</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f ca="1"/>
+        <v>au=0</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=0</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S18" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=x</v>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f ca="1"/>
+        <v>c=x</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f ca="1"/>
+        <v>be=N</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=2</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=n</v>
+      </c>
+      <c r="Y18" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=n</v>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA18" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB18" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC18" s="1" t="str">
+        <f ca="1"/>
+        <v>co=Bi bok yapmadı</v>
+      </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -1450,38 +2944,122 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B19" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
-        <v/>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+        <f t="array" aca="1" ref="B19:AC19" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
+        <v>s=burak</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f ca="1"/>
+        <v>e=Bosphorus Regional 2022</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f ca="1"/>
+        <v>l=qm</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f ca="1"/>
+        <v>m=4</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f ca="1"/>
+        <v>r=r2</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f ca="1"/>
+        <v>t=7292</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=7282</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[29]</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f ca="1"/>
+        <v>au=1</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f ca="1"/>
+        <v>al=0</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=N</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=1</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=0</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=0</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=0</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=N</v>
+      </c>
+      <c r="S19" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=g</v>
+      </c>
+      <c r="T19" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[30]</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f ca="1"/>
+        <v>c=3</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f ca="1"/>
+        <v>be=Y</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=2</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=n</v>
+      </c>
+      <c r="Y19" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=x</v>
+      </c>
+      <c r="Z19" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AB19" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AC19" s="1" t="str">
+        <f ca="1"/>
+        <v>co=İntake kötü, driver kötü 40sn tırmandı, alsa atar</v>
+      </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -1495,7 +3073,7 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A20,";",REPT(" ",LEN(A20)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A20)-LEN(SUBSTITUTE(A20,";",""))+1))*LEN(A20)+1,LEN(A20)+1)))</f>
         <v/>
@@ -1528,7 +3106,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A21,";",REPT(" ",LEN(A21)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A21)-LEN(SUBSTITUTE(A21,";",""))+1))*LEN(A21)+1,LEN(A21)+1)))</f>
         <v/>
@@ -1561,7 +3139,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A22,";",REPT(" ",LEN(A22)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A22)-LEN(SUBSTITUTE(A22,";",""))+1))*LEN(A22)+1,LEN(A22)+1)))</f>
         <v/>
@@ -1594,7 +3172,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A23,";",REPT(" ",LEN(A23)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A23)-LEN(SUBSTITUTE(A23,";",""))+1))*LEN(A23)+1,LEN(A23)+1)))</f>
         <v/>
@@ -1627,7 +3205,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A24,";",REPT(" ",LEN(A24)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A24)-LEN(SUBSTITUTE(A24,";",""))+1))*LEN(A24)+1,LEN(A24)+1)))</f>
         <v/>
@@ -1660,7 +3238,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A25,";",REPT(" ",LEN(A25)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A25)-LEN(SUBSTITUTE(A25,";",""))+1))*LEN(A25)+1,LEN(A25)+1)))</f>
         <v/>
@@ -1693,7 +3271,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A26,";",REPT(" ",LEN(A26)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A26)-LEN(SUBSTITUTE(A26,";",""))+1))*LEN(A26)+1,LEN(A26)+1)))</f>
         <v/>
@@ -1726,7 +3304,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A27,";",REPT(" ",LEN(A27)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A27)-LEN(SUBSTITUTE(A27,";",""))+1))*LEN(A27)+1,LEN(A27)+1)))</f>
         <v/>
@@ -1759,7 +3337,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A28,";",REPT(" ",LEN(A28)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A28)-LEN(SUBSTITUTE(A28,";",""))+1))*LEN(A28)+1,LEN(A28)+1)))</f>
         <v/>
@@ -1792,7 +3370,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A29,";",REPT(" ",LEN(A29)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A29)-LEN(SUBSTITUTE(A29,";",""))+1))*LEN(A29)+1,LEN(A29)+1)))</f>
         <v/>
@@ -1825,7 +3403,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A30,";",REPT(" ",LEN(A30)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A30)-LEN(SUBSTITUTE(A30,";",""))+1))*LEN(A30)+1,LEN(A30)+1)))</f>
         <v/>
@@ -1858,7 +3436,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A31,";",REPT(" ",LEN(A31)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A31)-LEN(SUBSTITUTE(A31,";",""))+1))*LEN(A31)+1,LEN(A31)+1)))</f>
         <v/>
@@ -1891,7 +3469,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A32,";",REPT(" ",LEN(A32)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A32)-LEN(SUBSTITUTE(A32,";",""))+1))*LEN(A32)+1,LEN(A32)+1)))</f>
         <v/>
@@ -3882,8 +5460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1048276-8A82-4E9E-96B8-21ABC897CB97}">
   <dimension ref="A1:AQ91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3904,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3913,10 +5491,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -3973,13 +5551,13 @@
         <v>21</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="AD1" s="5"/>
       <c r="AE1" s="3"/>
@@ -3997,41 +5575,122 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>Insert!A2</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B2), LEN(_xlfn.ANCHORARRAY(Insert!B2)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B2)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+        <v>s=Onur;e=Bosphorus Regional 2022;l=qm;m=1;r=r1;t=7086;tn=İorobot;as=[44];at=Y;au=0;al=0;ac=Y;tu=2;tl=0;tm=3;tn=0;wd=N;cl=g;ss=;c=1;be=N;cn=3;ds=a;dr=x;d=N;to=N;cf=N;co=İntake çöp shooter çok yukarı atıyor isabeli değil</v>
+      </c>
+      <c r="B2" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B2:AC2" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B2), LEN(_xlfn.ANCHORARRAY(Insert!B2)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B2)))</f>
+        <v>Onur</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f ca="1"/>
+        <v>r1</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f ca="1"/>
+        <v>7086</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f ca="1"/>
+        <v>İorobot</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f ca="1"/>
+        <v>[44]</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T2" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U2" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z2" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA2" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB2" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC2" s="1" t="str">
+        <f ca="1"/>
+        <v>İntake çöp shooter çok yukarı atıyor isabeli değil</v>
+      </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
@@ -4047,41 +5706,122 @@
       <c r="AP2" s="4"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>Insert!A3</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B3), LEN(_xlfn.ANCHORARRAY(Insert!B3)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B3)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+        <v>s=Talya Aycan Bayram;e=Bosphorus Regional 2022;l=qm;m=1;r=b1;t=5665;tn=SPARC;as=[30];at=N;au=1;al=0;ac=N;tu=1;tl=0;tm=2;tn=1;wd=N;cl=g;ss=[29];c=3;be=N;cn=0;ds=a;dr=a;d=N;to=N;cf=N;co=</v>
+      </c>
+      <c r="B3" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B3:AC3" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B3), LEN(_xlfn.ANCHORARRAY(Insert!B3)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B3)))</f>
+        <v>Talya Aycan Bayram</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f ca="1"/>
+        <v>b1</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f ca="1"/>
+        <v>5665</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f ca="1"/>
+        <v>SPARC</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f ca="1"/>
+        <v>[30]</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f ca="1"/>
+        <v>[29]</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB3" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC3" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
@@ -4097,41 +5837,122 @@
       <c r="AP3" s="4"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>Insert!A4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B4), LEN(_xlfn.ANCHORARRAY(Insert!B4)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+        <v>s=Aysu Uysal;e=Bosphorus Regional 2022;l=qm;m=1;r=r2;t=8153;tn=Tech 4 Peace;as=[31];at=Y;au=1;al=0;ac=N;tu=1;tl=0;tm=5;tn=0;wd=N;cl=g;ss=;c=3;be=Y;cn=3;ds=x;dr=x;d=N;to=N;cf=N;co=Atışları girmedi</v>
+      </c>
+      <c r="B4" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B4:AC4" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B4), LEN(_xlfn.ANCHORARRAY(Insert!B4)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B4)))</f>
+        <v>Aysu Uysal</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f ca="1"/>
+        <v>r2</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f ca="1"/>
+        <v>8153</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f ca="1"/>
+        <v>Tech 4 Peace</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f ca="1"/>
+        <v>[31]</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC4" s="1" t="str">
+        <f ca="1"/>
+        <v>Atışları girmedi</v>
+      </c>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -4147,41 +5968,122 @@
       <c r="AP4" s="4"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>Insert!A5</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B5), LEN(_xlfn.ANCHORARRAY(Insert!B5)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B5)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+        <v>s=Berra;e=Bosphorus Regional 2022;l=qm;m=1;r=r3;t=7748;tn=Techtolia Robotics;as=[19];at=Y;au=0;al=0;ac=N;tu=0;tl=2;tm=0;tn=0;wd=N;cl=g;ss=[19];c=2;be=N;cn=3;ds=a;dr=a;d=N;to=N;cf=N;co=</v>
+      </c>
+      <c r="B5" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B5:AC5" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B5), LEN(_xlfn.ANCHORARRAY(Insert!B5)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B5)))</f>
+        <v>Berra</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f ca="1"/>
+        <v>r3</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f ca="1"/>
+        <v>7748</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f ca="1"/>
+        <v>Techtolia Robotics</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f ca="1"/>
+        <v>[19]</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f ca="1"/>
+        <v>[19]</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB5" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -4197,41 +6099,122 @@
       <c r="AP5" s="4"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" t="str">
         <f>Insert!A6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B6), LEN(_xlfn.ANCHORARRAY(Insert!B6)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B6)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+        <v>s=Aysu Uysal;e=Bosphorus Regional 2022;l=qm;m=2;r=r2;t=7682;tn=Fusion Robotics;as=[19];at=Y;au=1;al=0;ac=N;tu=0;tl=0;tm=2;tn=0;wd=N;cl=x;ss=[11,10];c=x;be=N;cn=0;ds=n;dr=n;d=N;to=N;cf=N;co=Hareket etmedi doğru düzgün</v>
+      </c>
+      <c r="B6" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B6:AC6" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B6), LEN(_xlfn.ANCHORARRAY(Insert!B6)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B6)))</f>
+        <v>Aysu Uysal</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f ca="1"/>
+        <v>r2</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f ca="1"/>
+        <v>7682</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f ca="1"/>
+        <v>Fusion Robotics</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f ca="1"/>
+        <v>[19]</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f ca="1"/>
+        <v>[11,10]</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA6" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB6" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC6" s="1" t="str">
+        <f ca="1"/>
+        <v>Hareket etmedi doğru düzgün</v>
+      </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -4247,41 +6230,122 @@
       <c r="AP6" s="4"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>Insert!A7</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B7), LEN(_xlfn.ANCHORARRAY(Insert!B7)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B7)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+        <v>s=Talya Aycan Bayram;e=Bosphorus Regional 2022;l=qm;m=2;r=b1;t=8856;tn=Lapis Lazuli;as=[54];at=N;au=0;al=1;ac=N;tu=0;tl=6;tm=0;tn=0;wd=N;cl=g;ss=[29];c=f;be=N;cn=0;ds=n;dr=a;d=N;to=N;cf=N;co=</v>
+      </c>
+      <c r="B7" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B7:AC7" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B7), LEN(_xlfn.ANCHORARRAY(Insert!B7)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B7)))</f>
+        <v>Talya Aycan Bayram</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f ca="1"/>
+        <v>b1</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f ca="1"/>
+        <v>8856</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f ca="1"/>
+        <v>Lapis Lazuli</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f ca="1"/>
+        <v>[54]</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f ca="1"/>
+        <v>[29]</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f ca="1"/>
+        <v>f</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB7" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC7" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -4297,41 +6361,122 @@
       <c r="AP7" s="4"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>Insert!A8</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B8), LEN(_xlfn.ANCHORARRAY(Insert!B8)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B8)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
+        <v>s=Onur ;e=Bosphorus Regional 2022;l=qm;m=2;r=r1;t=8636;tn=Türkistan robotics;as=[44];at=Y;au=0;al=0;ac=N;tu=0;tl=0;tm=5;tn=0;wd=N;cl=g;ss=[44,44,44,44,44];c=x;be=N;cn=0;ds=a;dr=x;d=N;to=N;cf=N;co=</v>
+      </c>
+      <c r="B8" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B8:AC8" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B8), LEN(_xlfn.ANCHORARRAY(Insert!B8)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B8)))</f>
+        <v>Onur</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f ca="1"/>
+        <v>r1</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f ca="1"/>
+        <v>8636</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f ca="1"/>
+        <v>Türkistan robotics</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f ca="1"/>
+        <v>[44]</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f ca="1"/>
+        <v>[44,44,44,44,44]</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA8" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB8" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC8" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -4347,41 +6492,122 @@
       <c r="AP8" s="4"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>Insert!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B9), LEN(_xlfn.ANCHORARRAY(Insert!B9)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B9)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
+        <v>s=Duru;e=Bosphorus Regional 2022;l=qm;m=2;r=b2;t=1772;tn=The brazillian ;as=[29];at=Y;au=0;al=0;ac=Y;tu=5;tl=0;tm=4;tn=0;wd=N;cl=g;ss=;c=2;be=N;cn=0;ds=a;dr=x;d=N;to=N;cf=N;co=</v>
+      </c>
+      <c r="B9" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B9:AC9" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B9), LEN(_xlfn.ANCHORARRAY(Insert!B9)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B9)))</f>
+        <v>Duru</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f ca="1"/>
+        <v>b2</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f ca="1"/>
+        <v>1772</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f ca="1"/>
+        <v>The brazillian</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f ca="1"/>
+        <v>[29]</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA9" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB9" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC9" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -4397,41 +6623,122 @@
       <c r="AP9" s="4"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>Insert!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B10), LEN(_xlfn.ANCHORARRAY(Insert!B10)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B10)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+        <v>s=Demir;e=Bosphorus Regional 2022;l=qm;m=2;r=b3;t=6459;tn=Ag Robotik ;as=[42];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=0;tn=0;wd=N;cl=x;ss=;c=x;be=N;cn=1;ds=x;dr=a;d=N;to=N;cf=N;co=Didnt do anything</v>
+      </c>
+      <c r="B10" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B10:AC10" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B10), LEN(_xlfn.ANCHORARRAY(Insert!B10)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B10)))</f>
+        <v>Demir</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f ca="1"/>
+        <v>b3</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f ca="1"/>
+        <v>6459</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f ca="1"/>
+        <v>Ag Robotik</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f ca="1"/>
+        <v>[42]</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA10" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB10" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC10" s="1" t="str">
+        <f ca="1"/>
+        <v>Didnt do anything</v>
+      </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -4447,41 +6754,122 @@
       <c r="AP10" s="4"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>Insert!A11</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B11), LEN(_xlfn.ANCHORARRAY(Insert!B11)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B11)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+        <v>s=Berra;e=Bosphorus Regional 2022;l=qm;m=2;r=r3;t=8861;tn=06ANGORA;as=[44];at=Y;au=0;al=0;ac=N;tu=2;tl=0;tm=1;tn=0;wd=N;cl=g;ss=[21,52,7];c=x;be=N;cn=1;ds=n;dr=x;d=N;to=N;cf=N;co=</v>
+      </c>
+      <c r="B11" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B11:AC11" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B11), LEN(_xlfn.ANCHORARRAY(Insert!B11)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B11)))</f>
+        <v>Berra</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f ca="1"/>
+        <v>r3</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f ca="1"/>
+        <v>8861</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f ca="1"/>
+        <v>06ANGORA</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f ca="1"/>
+        <v>[44]</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S11" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f ca="1"/>
+        <v>[21,52,7]</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z11" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA11" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB11" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC11" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
@@ -4497,41 +6885,122 @@
       <c r="AP11" s="4"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>Insert!A12</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B12), LEN(_xlfn.ANCHORARRAY(Insert!B12)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B12)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
+        <v>s=Demir;e=Bosphorus Regional 2022;l=qm;m=1;r=b3;t=8800;tn=Industry robotics;as=[55];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=1;tn=0;wd=N;cl=g;ss=[54];c=x;be=N;cn=4;ds=n;dr=n;d=N;to=N;cf=N;co=Didnt do anything</v>
+      </c>
+      <c r="B12" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B12:AC12" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B12), LEN(_xlfn.ANCHORARRAY(Insert!B12)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B12)))</f>
+        <v>Demir</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f ca="1"/>
+        <v>b3</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f ca="1"/>
+        <v>8800</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f ca="1"/>
+        <v>Industry robotics</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f ca="1"/>
+        <v>[55]</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f ca="1"/>
+        <v>[54]</v>
+      </c>
+      <c r="U12" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Z12" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA12" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB12" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f ca="1"/>
+        <v>Didnt do anything</v>
+      </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -4547,41 +7016,122 @@
       <c r="AP12" s="4"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>Insert!A13</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B13), LEN(_xlfn.ANCHORARRAY(Insert!B13)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B13)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+        <v>s=Aysu Uysal;e=Bosphorus Regional 2022;l=qm;m=3;r=r2;t=8084;tn=Alfa Robotics;as=[44];at=Y;au=0;al=0;ac=N;tu=0;tl=0;tm=0;tn=0;wd=N;cl=x;ss=;c=x;be=N;cn=0;ds=x;dr=x;d=N;to=N;cf=N;co=Otonomdan sonra hareket edemedi</v>
+      </c>
+      <c r="B13" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B13:AC13" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B13), LEN(_xlfn.ANCHORARRAY(Insert!B13)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B13)))</f>
+        <v>Aysu Uysal</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f ca="1"/>
+        <v>r2</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f ca="1"/>
+        <v>8084</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f ca="1"/>
+        <v>Alfa Robotics</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f ca="1"/>
+        <v>[44]</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S13" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA13" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB13" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC13" s="1" t="str">
+        <f ca="1"/>
+        <v>Otonomdan sonra hareket edemedi</v>
+      </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -4597,41 +7147,122 @@
       <c r="AP13" s="4"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>Insert!A14</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B14), LEN(_xlfn.ANCHORARRAY(Insert!B14)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B14)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+        <v>s=Duru;e=Bosphorus Regional 2022;l=qm;m=3;r=b2;t=8092;tn=Goat;as=[42];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=0;tn=0;wd=N;cl=g;ss=;c=x;be=N;cn=0;ds=a;dr=x;d=Y;to=N;cf=N;co=</v>
+      </c>
+      <c r="B14" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B14:AC14" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B14), LEN(_xlfn.ANCHORARRAY(Insert!B14)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B14)))</f>
+        <v>Duru</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f ca="1"/>
+        <v>b2</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f ca="1"/>
+        <v>8092</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f ca="1"/>
+        <v>Goat</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f ca="1"/>
+        <v>[42]</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S14" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z14" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="AA14" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB14" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC14" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
@@ -4647,41 +7278,122 @@
       <c r="AP14" s="4"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>Insert!A15</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B15), LEN(_xlfn.ANCHORARRAY(Insert!B15)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B15)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+        <v>s=Demir;e=Bosphorus Regional 2022;l=qm;m=3;r=b3;t=7672;tn=Scorpions;as=[17];at=Y;au=0;al=0;ac=N;tu=1;tl=0;tm=0;tn=0;wd=N;cl=g;ss=[54];c=4;be=Y;cn=3;ds=v;dr=a;d=N;to=N;cf=N;co=The robot was the only one that scored</v>
+      </c>
+      <c r="B15" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B15:AC15" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B15), LEN(_xlfn.ANCHORARRAY(Insert!B15)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B15)))</f>
+        <v>Demir</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f ca="1"/>
+        <v>b3</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f ca="1"/>
+        <v>7672</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f ca="1"/>
+        <v>Scorpions</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f ca="1"/>
+        <v>[17]</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T15" s="1" t="str">
+        <f ca="1"/>
+        <v>[54]</v>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f ca="1"/>
+        <v>v</v>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Z15" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA15" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB15" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f ca="1"/>
+        <v>The robot was the only one that scored</v>
+      </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -4697,41 +7409,122 @@
       <c r="AP15" s="4"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" t="str">
         <f>Insert!A16</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B16), LEN(_xlfn.ANCHORARRAY(Insert!B16)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B16)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+        <v>s=Onur;e=Bosphorus Regional 2022;l=qm;m=3;r=r1;t=8747;tn=Unye fen;as=[44];at=Y;au=0;al=0;ac=N;tu=0;tl=2;tm=0;tn=0;wd=N;cl=g;ss=[43,43];c=2;be=N;cn=1;ds=a;dr=x;d=N;to=N;cf=N;co=Tahta robot</v>
+      </c>
+      <c r="B16" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B16:AC16" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B16), LEN(_xlfn.ANCHORARRAY(Insert!B16)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B16)))</f>
+        <v>Onur</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f ca="1"/>
+        <v>r1</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f ca="1"/>
+        <v>8747</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f ca="1"/>
+        <v>Unye fen</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f ca="1"/>
+        <v>[44]</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S16" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T16" s="1" t="str">
+        <f ca="1"/>
+        <v>[43,43]</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f ca="1"/>
+        <v>a</v>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z16" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA16" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB16" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC16" s="1" t="str">
+        <f ca="1"/>
+        <v>Tahta robot</v>
+      </c>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -4747,41 +7540,122 @@
       <c r="AP16" s="4"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" t="str">
         <f>Insert!A17</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B17), LEN(_xlfn.ANCHORARRAY(Insert!B17)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B17)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+        <v>s=Zeynep Naz Atabek;e=Bosphorus Regional 2022;l=qm;m=4;r=b2;t=6988;tn=İzmir Amerikan Koleji;as=[54];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=1;tn=0;wd=N;cl=x;ss=;c=f;be=Y;cn=1;ds=n;dr=x;d=N;to=Y;cf=N;co=</v>
+      </c>
+      <c r="B17" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B17:AC17" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B17), LEN(_xlfn.ANCHORARRAY(Insert!B17)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B17)))</f>
+        <v>Zeynep Naz Atabek</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f ca="1"/>
+        <v>b2</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f ca="1"/>
+        <v>6988</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f ca="1"/>
+        <v>İzmir Amerikan Koleji</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f ca="1"/>
+        <v>[54]</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f ca="1"/>
+        <v>f</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA17" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="AB17" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC17" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
@@ -4797,41 +7671,122 @@
       <c r="AP17" s="4"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" t="str">
         <f>Insert!A18</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B18), LEN(_xlfn.ANCHORARRAY(Insert!B18)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B18)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+        <v>s=Kayra;e=Bosphorus Regional 2022;l=qm;m=4;r=r3;t=8762;tn=Anemrium robotics team?;as=[55];at=N;au=0;al=0;ac=N;tu=0;tl=0;tm=0;tn=0;wd=N;cl=x;ss=;c=x;be=N;cn=2;ds=n;dr=n;d=N;to=N;cf=N;co=Bi bok yapmadı</v>
+      </c>
+      <c r="B18" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B18:AC18" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B18), LEN(_xlfn.ANCHORARRAY(Insert!B18)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B18)))</f>
+        <v>Kayra</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f ca="1"/>
+        <v>r3</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f ca="1"/>
+        <v>8762</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f ca="1"/>
+        <v>Anemrium robotics team?</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f ca="1"/>
+        <v>[55]</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S18" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Y18" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA18" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB18" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC18" s="1" t="str">
+        <f ca="1"/>
+        <v>Bi bok yapmadı</v>
+      </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -4847,41 +7802,122 @@
       <c r="AP18" s="4"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>Insert!A19</f>
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B19), LEN(_xlfn.ANCHORARRAY(Insert!B19)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B19)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+        <v>s=burak;e=Bosphorus Regional 2022;l=qm;m=4;r=r2;t=7292;tn=7282;as=[29];at=Y;au=1;al=0;ac=N;tu=1;tl=0;tm=0;tn=0;wd=N;cl=g;ss=[30];c=3;be=Y;cn=2;ds=n;dr=x;d=N;to=N;cf=N;co=İntake kötü, driver kötü 40sn tırmandı, alsa atar</v>
+      </c>
+      <c r="B19" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B19:AC19" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B19), LEN(_xlfn.ANCHORARRAY(Insert!B19)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B19)))</f>
+        <v>burak</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f ca="1"/>
+        <v>Bosphorus Regional 2022</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f ca="1"/>
+        <v>qm</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f ca="1"/>
+        <v>r2</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f ca="1"/>
+        <v>7292</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f ca="1"/>
+        <v>7282</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f ca="1"/>
+        <v>[29]</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="S19" s="1" t="str">
+        <f ca="1"/>
+        <v>g</v>
+      </c>
+      <c r="T19" s="1" t="str">
+        <f ca="1"/>
+        <v>[30]</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f ca="1"/>
+        <v>n</v>
+      </c>
+      <c r="Y19" s="1" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z19" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB19" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AC19" s="1" t="str">
+        <f ca="1"/>
+        <v>İntake kötü, driver kötü 40sn tırmandı, alsa atar</v>
+      </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
